--- a/Study Selection and Quality Assessment Process/STAGE5.xlsx
+++ b/Study Selection and Quality Assessment Process/STAGE5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Faith/Desktop/SystematicReview/Study Selection and Quality Assessment Process/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Faith/Documents/GitHub/SystematicReview_Design/Study Selection and Quality Assessment Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803471E0-BDD2-5844-BF2B-37EEE8D962F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50EDCB-C990-4141-96C7-7571FC6884B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{4E9BDB63-DF4C-CC42-8482-D26500EAEFC7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{4E9BDB63-DF4C-CC42-8482-D26500EAEFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE 5_INPUT" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5930" uniqueCount="2313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5939" uniqueCount="2314">
   <si>
     <t>Authors</t>
   </si>
@@ -6981,6 +6981,9 @@
   </si>
   <si>
     <t>Bozgeyikli, Lal and Bozgeyikli, Evren and Raij, Andrew and Alqasemi, Redwan and Katkoori, Srinivas and Dubey, Rajiv</t>
+  </si>
+  <si>
+    <t>EX4 multiple publication</t>
   </si>
 </sst>
 </file>
@@ -7466,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98B142A-4506-2044-A432-26CC84C71935}">
   <dimension ref="A1:H805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="68" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -28269,8 +28272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FABD175-2AA2-C340-8DA2-AF801CE272FA}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="67" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="67" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28340,6 +28343,9 @@
       <c r="H2" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
@@ -28391,6 +28397,9 @@
       <c r="H4" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -28420,27 +28429,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>2072</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>2073</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>2015</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>2074</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>2286</v>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -28468,6 +28480,9 @@
       <c r="H7" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
@@ -28497,29 +28512,32 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>2081</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>2082</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>2016</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>2083</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>2295</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>2286</v>
+      <c r="F9" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -28545,6 +28563,9 @@
       <c r="H10" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
@@ -28569,6 +28590,9 @@
       <c r="H11" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
@@ -28787,27 +28811,30 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="27" t="s">
         <v>2116</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="27" t="s">
         <v>2117</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="27">
         <v>2018</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>2118</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>2286</v>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -28862,6 +28889,9 @@
       <c r="H22" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
@@ -28913,6 +28943,9 @@
       <c r="H24" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
@@ -28939,6 +28972,9 @@
       <c r="H25" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
@@ -28992,6 +29028,9 @@
       <c r="H27" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
@@ -29016,6 +29055,9 @@
       <c r="H28" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
@@ -29069,6 +29111,9 @@
       <c r="H30" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
@@ -29095,6 +29140,9 @@
       <c r="H31" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
@@ -29123,7 +29171,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
         <v>2168</v>
       </c>
@@ -29205,29 +29253,32 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>2176</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>2177</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="27">
         <v>2014</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="27" t="s">
         <v>2178</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="27" t="s">
         <v>2292</v>
       </c>
-      <c r="F36" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H36" s="26" t="s">
-        <v>2286</v>
+      <c r="F36" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -29280,6 +29331,9 @@
       <c r="H38" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
@@ -29304,6 +29358,9 @@
       <c r="H39" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
@@ -29328,6 +29385,9 @@
       <c r="H40" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
@@ -29406,31 +29466,37 @@
       <c r="H43" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>2214</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="27" t="s">
         <v>2215</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="27">
         <v>2016</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="27" t="s">
         <v>2216</v>
       </c>
-      <c r="E44" s="26" t="s">
+      <c r="E44" s="27" t="s">
         <v>2292</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>2286</v>
+      <c r="F44" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I44" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -29461,29 +29527,32 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>2220</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="27" t="s">
         <v>2221</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="27">
         <v>2016</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="27" t="s">
         <v>2299</v>
       </c>
-      <c r="E46" s="26" t="s">
+      <c r="E46" s="27" t="s">
         <v>2294</v>
       </c>
-      <c r="F46" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>2286</v>
+      <c r="F46" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I46" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -29509,6 +29578,9 @@
       <c r="H47" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
@@ -29560,6 +29632,9 @@
       <c r="H49" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
@@ -29589,55 +29664,61 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>2233</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="27" t="s">
         <v>2234</v>
       </c>
-      <c r="C51" s="26">
+      <c r="C51" s="27">
         <v>2016</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="27" t="s">
         <v>2235</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="E51" s="27" t="s">
         <v>2294</v>
       </c>
-      <c r="F51" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>2286</v>
+      <c r="F51" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>2236</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="27" t="s">
         <v>2237</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C52" s="27">
         <v>2014</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="27" t="s">
         <v>2290</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="27" t="s">
         <v>2294</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>2286</v>
+      <c r="F52" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H52" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I52" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -29665,6 +29746,9 @@
       <c r="H53" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="26" t="s">
@@ -29691,31 +29775,37 @@
       <c r="H54" s="26" t="s">
         <v>2286</v>
       </c>
+      <c r="I54" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>2243</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="27" t="s">
         <v>2244</v>
       </c>
-      <c r="C55" s="26">
+      <c r="C55" s="27">
         <v>2017</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="27" t="s">
         <v>2296</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E55" s="27" t="s">
         <v>2295</v>
       </c>
-      <c r="F55" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>2286</v>
+      <c r="F55" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>2313</v>
       </c>
     </row>
   </sheetData>

--- a/Study Selection and Quality Assessment Process/STAGE5.xlsx
+++ b/Study Selection and Quality Assessment Process/STAGE5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Faith/Documents/GitHub/SystematicReview_Design/Study Selection and Quality Assessment Process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F50EDCB-C990-4141-96C7-7571FC6884B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799381D-A8DA-F14D-86AF-4E6283888D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{4E9BDB63-DF4C-CC42-8482-D26500EAEFC7}"/>
+    <workbookView xWindow="460" yWindow="4640" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{4E9BDB63-DF4C-CC42-8482-D26500EAEFC7}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE 5_INPUT" sheetId="1" r:id="rId1"/>
@@ -7084,7 +7084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7147,7 +7147,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -28272,8 +28271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FABD175-2AA2-C340-8DA2-AF801CE272FA}">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScale="67" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28480,7 +28479,7 @@
       <c r="H7" s="26" t="s">
         <v>2286</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
@@ -29775,7 +29774,7 @@
       <c r="H54" s="26" t="s">
         <v>2286</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54">
         <v>1</v>
       </c>
     </row>
